--- a/BD_Shop.xlsx
+++ b/BD_Shop.xlsx
@@ -4,10 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="Roles" sheetId="2" r:id="rId2"/>
+    <sheet name="Orders" sheetId="3" r:id="rId3"/>
+    <sheet name="OrderStatus" sheetId="5" r:id="rId4"/>
+    <sheet name="PickUpPoint" sheetId="4" r:id="rId5"/>
+    <sheet name="Products" sheetId="6" r:id="rId6"/>
+    <sheet name="Manufacturer" sheetId="7" r:id="rId7"/>
+    <sheet name="Dealer" sheetId="8" r:id="rId8"/>
+    <sheet name="ProductCategory" sheetId="9" r:id="rId9"/>
+    <sheet name="NameCategory" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +27,791 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="258">
+  <si>
+    <t>Роль сотрудника</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Логин</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>Администратор</t>
+  </si>
+  <si>
+    <t>Суслов Илья Арсентьевич</t>
+  </si>
+  <si>
+    <t>pixil59@gmail.com</t>
+  </si>
+  <si>
+    <t>2L6KZG</t>
+  </si>
+  <si>
+    <t>Яковлева Ярослава Даниэльевна</t>
+  </si>
+  <si>
+    <t>uzWC67</t>
+  </si>
+  <si>
+    <t>Игнатьева Алина Михайловна</t>
+  </si>
+  <si>
+    <t>vilagajaunne-5170@yandex.ru</t>
+  </si>
+  <si>
+    <t>8ntwUp</t>
+  </si>
+  <si>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>Денисов Михаил Романович</t>
+  </si>
+  <si>
+    <t>frusubroppotou656@yandex.ru</t>
+  </si>
+  <si>
+    <t>YOyhfR</t>
+  </si>
+  <si>
+    <t>Тимофеев Михаил Елисеевич</t>
+  </si>
+  <si>
+    <t>leuttevitrafo1998@mail.ru</t>
+  </si>
+  <si>
+    <t>RSbvHv</t>
+  </si>
+  <si>
+    <t>Соловьев Ярослав Маркович</t>
+  </si>
+  <si>
+    <t>frapreubrulloba1141@yandex.ru</t>
+  </si>
+  <si>
+    <t>rwVDh9</t>
+  </si>
+  <si>
+    <t>Клиент</t>
+  </si>
+  <si>
+    <t>Филимонов Роберт Васильевич</t>
+  </si>
+  <si>
+    <t>loudittoimmolau1900@gmail.com</t>
+  </si>
+  <si>
+    <t>LdNyos</t>
+  </si>
+  <si>
+    <t>Шилова Майя Артемьевна</t>
+  </si>
+  <si>
+    <t>hittuprofassa4984@mail.com</t>
+  </si>
+  <si>
+    <t>gynQMT</t>
+  </si>
+  <si>
+    <t>Чистякова Виктория Степановна</t>
+  </si>
+  <si>
+    <t>freineiciweijau888@yandex.ru</t>
+  </si>
+  <si>
+    <t>AtnDjr</t>
+  </si>
+  <si>
+    <t>Волкова Эмилия Артёмовна</t>
+  </si>
+  <si>
+    <t>nokupekidda2001@gmail.com</t>
+  </si>
+  <si>
+    <t>JlFRCZ</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>RoleID</t>
+  </si>
+  <si>
+    <t>deummecillummu-4992@mail.ru</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>Дата заказа</t>
+  </si>
+  <si>
+    <t>Дата доставки</t>
+  </si>
+  <si>
+    <t>Пункт выдачи</t>
+  </si>
+  <si>
+    <t>ФИО клиента</t>
+  </si>
+  <si>
+    <t>Код для получения</t>
+  </si>
+  <si>
+    <t>Статус заказа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новый </t>
+  </si>
+  <si>
+    <t>Завершен</t>
+  </si>
+  <si>
+    <t>344288, г. Нефтеюганск, ул. Чехова, 1</t>
+  </si>
+  <si>
+    <t>614164, г.Нефтеюганск,  ул. Степная, 30</t>
+  </si>
+  <si>
+    <t>394242, г. Нефтеюганск, ул. Коммунистическая, 43</t>
+  </si>
+  <si>
+    <t>660540, г. Нефтеюганск, ул. Солнечная, 25</t>
+  </si>
+  <si>
+    <t>125837, г. Нефтеюганск, ул. Шоссейная, 40</t>
+  </si>
+  <si>
+    <t>125703, г. Нефтеюганск, ул. Партизанская, 49</t>
+  </si>
+  <si>
+    <t>625283, г. Нефтеюганск, ул. Победы, 46</t>
+  </si>
+  <si>
+    <t>614611, г. Нефтеюганск, ул. Молодежная, 50</t>
+  </si>
+  <si>
+    <t>454311, г.Нефтеюганск, ул. Новая, 19</t>
+  </si>
+  <si>
+    <t>660007, г.Нефтеюганск, ул. Октябрьская, 19</t>
+  </si>
+  <si>
+    <t>603036, г. Нефтеюганск, ул. Садовая, 4</t>
+  </si>
+  <si>
+    <t>450983, г.Нефтеюганск, ул. Комсомольская, 26</t>
+  </si>
+  <si>
+    <t>394782, г. Нефтеюганск, ул. Чехова, 3</t>
+  </si>
+  <si>
+    <t>603002, г. Нефтеюганск, ул. Дзержинского, 28</t>
+  </si>
+  <si>
+    <t>450558, г. Нефтеюганск, ул. Набережная, 30</t>
+  </si>
+  <si>
+    <t>394060, г.Нефтеюганск, ул. Фрунзе, 43</t>
+  </si>
+  <si>
+    <t>410661, г. Нефтеюганск, ул. Школьная, 50</t>
+  </si>
+  <si>
+    <t>625590, г. Нефтеюганск, ул. Коммунистическая, 20</t>
+  </si>
+  <si>
+    <t>625683, г. Нефтеюганск, ул. 8 Марта</t>
+  </si>
+  <si>
+    <t>400562, г. Нефтеюганск, ул. Зеленая, 32</t>
+  </si>
+  <si>
+    <t>614510, г. Нефтеюганск, ул. Маяковского, 47</t>
+  </si>
+  <si>
+    <t>410542, г. Нефтеюганск, ул. Светлая, 46</t>
+  </si>
+  <si>
+    <t>620839, г. Нефтеюганск, ул. Цветочная, 8</t>
+  </si>
+  <si>
+    <t>443890, г. Нефтеюганск, ул. Коммунистическая, 1</t>
+  </si>
+  <si>
+    <t>603379, г. Нефтеюганск, ул. Спортивная, 46</t>
+  </si>
+  <si>
+    <t>603721, г. Нефтеюганск, ул. Гоголя, 41</t>
+  </si>
+  <si>
+    <t>410172, г. Нефтеюганск, ул. Северная, 13</t>
+  </si>
+  <si>
+    <t>420151, г. Нефтеюганск, ул. Вишневая, 32</t>
+  </si>
+  <si>
+    <t>125061, г. Нефтеюганск, ул. Подгорная, 8</t>
+  </si>
+  <si>
+    <t>630370, г. Нефтеюганск, ул. Шоссейная, 24</t>
+  </si>
+  <si>
+    <t>614753, г. Нефтеюганск, ул. Полевая, 35</t>
+  </si>
+  <si>
+    <t>426030, г. Нефтеюганск, ул. Маяковского, 44</t>
+  </si>
+  <si>
+    <t>450375, г. Нефтеюганск ул. Клубная, 44</t>
+  </si>
+  <si>
+    <t>625560, г. Нефтеюганск, ул. Некрасова, 12</t>
+  </si>
+  <si>
+    <t>630201, г. Нефтеюганск, ул. Комсомольская, 17</t>
+  </si>
+  <si>
+    <t>190949, г. Нефтеюганск, ул. Мичурина, 26</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>StatusID</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>А112Т4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G453T5</t>
+  </si>
+  <si>
+    <t>F432F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Y324F4</t>
+  </si>
+  <si>
+    <t>E532Q5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T432F4</t>
+  </si>
+  <si>
+    <t>G345E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E345R4</t>
+  </si>
+  <si>
+    <t>R356F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E431R5</t>
+  </si>
+  <si>
+    <t>H436R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D643B5</t>
+  </si>
+  <si>
+    <t>H342F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q245F5</t>
+  </si>
+  <si>
+    <t>K436T5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V527T5</t>
+  </si>
+  <si>
+    <t>V527T5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> K452T5</t>
+  </si>
+  <si>
+    <t>M356R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W548O7</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование </t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>Поставщик</t>
+  </si>
+  <si>
+    <t>Категория товара</t>
+  </si>
+  <si>
+    <t>Кол-во на складе</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Изображение</t>
+  </si>
+  <si>
+    <t>Лакомство</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>Dreames</t>
+  </si>
+  <si>
+    <t>PetShop</t>
+  </si>
+  <si>
+    <t>Товары для кошек</t>
+  </si>
+  <si>
+    <t>Лакомство для кошек Dreamies Подушечки с курицей, 140 г</t>
+  </si>
+  <si>
+    <t>А112Т4.png</t>
+  </si>
+  <si>
+    <t>G453T5</t>
+  </si>
+  <si>
+    <t>Щетка-варежка</t>
+  </si>
+  <si>
+    <t>True Touch</t>
+  </si>
+  <si>
+    <t>ZooMir</t>
+  </si>
+  <si>
+    <t>Для животных</t>
+  </si>
+  <si>
+    <t>Щетка-варежка True Touch для вычесывания шерсти, синий</t>
+  </si>
+  <si>
+    <t>G453T5.jpg</t>
+  </si>
+  <si>
+    <t>Сухой корм</t>
+  </si>
+  <si>
+    <t>Pro Plan</t>
+  </si>
+  <si>
+    <t>Сухой корм для кошек Pro Plan с чувствительным пищеварением</t>
+  </si>
+  <si>
+    <t>F432F4.jpg</t>
+  </si>
+  <si>
+    <t>Y324F4</t>
+  </si>
+  <si>
+    <t>TitBit</t>
+  </si>
+  <si>
+    <t>Товары для собак</t>
+  </si>
+  <si>
+    <t>Лакомство для собак Titbit Косточки мясные с индейкой и ягненком, 145 г</t>
+  </si>
+  <si>
+    <t>Y324F4.jpg</t>
+  </si>
+  <si>
+    <t>Лакомство для собак Titbit Печенье Био Десерт с лососем стандарт, 350 г</t>
+  </si>
+  <si>
+    <t>E532Q5.jpg</t>
+  </si>
+  <si>
+    <t>T432F4</t>
+  </si>
+  <si>
+    <t>Chappy</t>
+  </si>
+  <si>
+    <t>Сухой корм для собак Chappi говядина по-домашнему, с овощами</t>
+  </si>
+  <si>
+    <t>T432F4.jpg</t>
+  </si>
+  <si>
+    <t>Мячик</t>
+  </si>
+  <si>
+    <t>LIKER</t>
+  </si>
+  <si>
+    <t>Мячик для собак LIKER Мячик Лайкер (6294) оранжевый</t>
+  </si>
+  <si>
+    <t>G345E4.jpg</t>
+  </si>
+  <si>
+    <t>E345R4</t>
+  </si>
+  <si>
+    <t>Игрушка</t>
+  </si>
+  <si>
+    <t>Fancy Pets</t>
+  </si>
+  <si>
+    <t>Игрушка для животных «Котик» с кошачьей мятой FANCY PETS</t>
+  </si>
+  <si>
+    <t>E345R4.jpg</t>
+  </si>
+  <si>
+    <t>Миска</t>
+  </si>
+  <si>
+    <t>Nobby</t>
+  </si>
+  <si>
+    <t>Миска Nobby с рисунком Dog для собак 130 мл красный</t>
+  </si>
+  <si>
+    <t>R356F4.jpg</t>
+  </si>
+  <si>
+    <t>E431R5</t>
+  </si>
+  <si>
+    <t>Triol</t>
+  </si>
+  <si>
+    <t>Лакомство для собак Triol Кость из жил 7.5 см, 4шт. в уп.</t>
+  </si>
+  <si>
+    <t>E431R5.png</t>
+  </si>
+  <si>
+    <t>D563F4</t>
+  </si>
+  <si>
+    <t>Игрушка для собак Triol Бобер 41 см 12141053 бежевый</t>
+  </si>
+  <si>
+    <t>Игрушка для собак Triol 3D плетение EC-04/12171005 бежевый</t>
+  </si>
+  <si>
+    <t>D643B5</t>
+  </si>
+  <si>
+    <t>Cat Chow</t>
+  </si>
+  <si>
+    <t>Сухой корм для котят CAT CHOW с высоким содержанием домашней птицы</t>
+  </si>
+  <si>
+    <t>H432F4</t>
+  </si>
+  <si>
+    <t>Миска Triol 9002/KIDP3211/30261087 400 мл серебристый</t>
+  </si>
+  <si>
+    <t>S245R4</t>
+  </si>
+  <si>
+    <t>Сухой корм для кошек CAT CHOW</t>
+  </si>
+  <si>
+    <t>V352R4</t>
+  </si>
+  <si>
+    <t>Сухой корм для собак Chappi Мясное изобилие, мясное ассорти</t>
+  </si>
+  <si>
+    <t>Игрушка для собак Triol Енот 41 см 12141063 серый</t>
+  </si>
+  <si>
+    <t>Q245F5</t>
+  </si>
+  <si>
+    <t>Игрушка для собак Triol Бобер 41 см 12141063 серый</t>
+  </si>
+  <si>
+    <t>G542F5</t>
+  </si>
+  <si>
+    <t>Сухой корм для собак Pro Plan при чувствительном пищеварении, ягненок</t>
+  </si>
+  <si>
+    <t>H542R6</t>
+  </si>
+  <si>
+    <t>Лакомство для собак Triol Мясные полоски из кролика, 70 г</t>
+  </si>
+  <si>
+    <t>Мячик для собак Triol с косточками 12101096 желтый/зеленый</t>
+  </si>
+  <si>
+    <t>Игрушка для собак Triol Ящерица 39 см коричневый</t>
+  </si>
+  <si>
+    <t>K452T5</t>
+  </si>
+  <si>
+    <t>Лежак</t>
+  </si>
+  <si>
+    <t>ZooM</t>
+  </si>
+  <si>
+    <t>Лежак для собак и кошек ZooM Lama 40х30х8 см бежевый</t>
+  </si>
+  <si>
+    <t>E466T6</t>
+  </si>
+  <si>
+    <t>Клетка</t>
+  </si>
+  <si>
+    <t>Клетка для собак Triol 30671002 61х45.5х52 см серый/белый</t>
+  </si>
+  <si>
+    <t>B427R5</t>
+  </si>
+  <si>
+    <t>Миска для животных Triol "Стрекоза", 450 мл</t>
+  </si>
+  <si>
+    <t>H643W2</t>
+  </si>
+  <si>
+    <t>Миска Triol CB02/30231002 100 мл бежевый/голубой</t>
+  </si>
+  <si>
+    <t>D356R4</t>
+  </si>
+  <si>
+    <t>trixie</t>
+  </si>
+  <si>
+    <t>Мячик для собак TRIXIE DentaFun (32942) зеленый / белый</t>
+  </si>
+  <si>
+    <t>E434U6</t>
+  </si>
+  <si>
+    <t>Лакомство для собак Titbit Лакомый кусочек Нарезка из говядины, 80 г</t>
+  </si>
+  <si>
+    <t>Лакомство для собак Titbit Гематоген мясной Classic, 35 г</t>
+  </si>
+  <si>
+    <t>W548O7</t>
+  </si>
+  <si>
+    <t>Dog Chow</t>
+  </si>
+  <si>
+    <t>Сухой корм для щенков DOG CHOW Puppy, ягненок 2.5 кг</t>
+  </si>
+  <si>
+    <t>MaxDiscount</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>4100</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>2190</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>NameCategoryID</t>
+  </si>
+  <si>
+    <t>ManufacturerID</t>
+  </si>
+  <si>
+    <t>DealerID</t>
+  </si>
+  <si>
+    <t>ProductCategoryID</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +819,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,11 +899,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +951,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +991,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +1031,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +1063,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +1213,3656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>LOOKUP(C2,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>LOOKUP(C3,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>LOOKUP(C4,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>LOOKUP(C5,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>LOOKUP(C6,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>LOOKUP(C7,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>LOOKUP(C8,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>LOOKUP(C9,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>LOOKUP(C10,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>LOOKUP(C11,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B9">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B11">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="63">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="5">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10">
+        <v>44687</v>
+      </c>
+      <c r="F2" s="10">
+        <v>44693</v>
+      </c>
+      <c r="G2" s="5">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="5">
+        <v>601</v>
+      </c>
+      <c r="J2" s="5">
+        <f>LOOKUP(K2,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="7">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10">
+        <v>44687</v>
+      </c>
+      <c r="F3" s="10">
+        <v>44693</v>
+      </c>
+      <c r="G3" s="7">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="7">
+        <v>602</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LOOKUP(K3,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10">
+        <v>44689</v>
+      </c>
+      <c r="F4" s="10">
+        <v>44695</v>
+      </c>
+      <c r="G4" s="5">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5">
+        <v>603</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LOOKUP(K4,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>44689</v>
+      </c>
+      <c r="F5" s="10">
+        <v>44695</v>
+      </c>
+      <c r="G5" s="7">
+        <v>24</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="7">
+        <v>604</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LOOKUP(K5,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44691</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44697</v>
+      </c>
+      <c r="G6" s="5">
+        <v>25</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="5">
+        <v>605</v>
+      </c>
+      <c r="J6" s="5">
+        <f>LOOKUP(K6,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44692</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44698</v>
+      </c>
+      <c r="G7" s="7">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7">
+        <v>606</v>
+      </c>
+      <c r="J7" s="5">
+        <f>LOOKUP(K7,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44693</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44699</v>
+      </c>
+      <c r="G8" s="5">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="5">
+        <v>607</v>
+      </c>
+      <c r="J8" s="5">
+        <f>LOOKUP(K8,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44694</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44700</v>
+      </c>
+      <c r="G9" s="7">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="7">
+        <v>608</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LOOKUP(K9,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44696</v>
+      </c>
+      <c r="F10" s="10">
+        <v>44702</v>
+      </c>
+      <c r="G10" s="5">
+        <v>34</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="5">
+        <v>609</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LOOKUP(K10,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>44696</v>
+      </c>
+      <c r="F11" s="10">
+        <v>44702</v>
+      </c>
+      <c r="G11" s="7">
+        <v>36</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="7">
+        <v>610</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LOOKUP(K11,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>44687</v>
+      </c>
+      <c r="F12" s="10">
+        <v>44693</v>
+      </c>
+      <c r="G12" s="5">
+        <v>25</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="5">
+        <v>601</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LOOKUP(K12,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15</v>
+      </c>
+      <c r="E13" s="10">
+        <v>44687</v>
+      </c>
+      <c r="F13" s="10">
+        <v>44693</v>
+      </c>
+      <c r="G13" s="7">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="7">
+        <v>602</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LOOKUP(K13,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10">
+        <v>44689</v>
+      </c>
+      <c r="F14" s="10">
+        <v>44695</v>
+      </c>
+      <c r="G14" s="5">
+        <v>22</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="5">
+        <v>603</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LOOKUP(K14,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>44689</v>
+      </c>
+      <c r="F15" s="10">
+        <v>44695</v>
+      </c>
+      <c r="G15" s="7">
+        <v>24</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="7">
+        <v>604</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LOOKUP(K15,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10">
+        <v>44691</v>
+      </c>
+      <c r="F16" s="10">
+        <v>44697</v>
+      </c>
+      <c r="G16" s="5">
+        <v>25</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="5">
+        <v>605</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LOOKUP(K16,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>44692</v>
+      </c>
+      <c r="F17" s="10">
+        <v>44698</v>
+      </c>
+      <c r="G17" s="7">
+        <v>28</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="7">
+        <v>606</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LOOKUP(K17,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>44693</v>
+      </c>
+      <c r="F18" s="10">
+        <v>44699</v>
+      </c>
+      <c r="G18" s="5">
+        <v>36</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="5">
+        <v>607</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LOOKUP(K18,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>44694</v>
+      </c>
+      <c r="F19" s="10">
+        <v>44700</v>
+      </c>
+      <c r="G19" s="7">
+        <v>32</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="7">
+        <v>608</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LOOKUP(K19,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>44696</v>
+      </c>
+      <c r="F20" s="10">
+        <v>44702</v>
+      </c>
+      <c r="G20" s="5">
+        <v>34</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="5">
+        <v>609</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LOOKUP(K20,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>44696</v>
+      </c>
+      <c r="F21" s="10">
+        <v>44702</v>
+      </c>
+      <c r="G21" s="7">
+        <v>36</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="7">
+        <v>610</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LOOKUP(K21,OrderStatus!$B$2:$B$3,OrderStatus!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B3">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="47.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="94.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5">
+        <f>LOOKUP(D2,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="5">
+        <f>LOOKUP(I2,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="5">
+        <f>LOOKUP(K2,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="5">
+        <f>LOOKUP(M2,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="110.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="5">
+        <f>LOOKUP(D3,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="5">
+        <f>LOOKUP(I3,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LOOKUP(K3,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="5">
+        <f>LOOKUP(M3,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="110.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5">
+        <f>LOOKUP(D4,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="5">
+        <f>LOOKUP(I4,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LOOKUP(K4,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="5">
+        <f>LOOKUP(M4,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="126">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="5">
+        <f>LOOKUP(D5,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="5">
+        <f>LOOKUP(I5,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LOOKUP(K5,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="5">
+        <f>LOOKUP(M5,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="110.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="5">
+        <f>LOOKUP(D6,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="5">
+        <f>LOOKUP(I6,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="5">
+        <f>LOOKUP(K6,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="5">
+        <f>LOOKUP(M6,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="110.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="5">
+        <f>LOOKUP(D7,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="5">
+        <f>LOOKUP(I7,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="5">
+        <f>LOOKUP(K7,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="5">
+        <f>LOOKUP(M7,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="94.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="5">
+        <f>LOOKUP(D8,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="5">
+        <f>LOOKUP(I8,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="5">
+        <f>LOOKUP(K8,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="5">
+        <f>LOOKUP(M8,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="110.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="5">
+        <f>LOOKUP(D9,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="5">
+        <f>LOOKUP(I9,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LOOKUP(K9,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="5">
+        <f>LOOKUP(M9,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="94.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="5">
+        <f>LOOKUP(D10,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="5">
+        <f>LOOKUP(I10,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>7</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LOOKUP(K10,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="5">
+        <f>LOOKUP(M10,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="78.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="5">
+        <f>LOOKUP(D11,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" s="5">
+        <f>LOOKUP(I11,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LOOKUP(K11,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="5">
+        <f>LOOKUP(M11,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="78.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="5">
+        <f>LOOKUP(D12,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="5">
+        <f>LOOKUP(I12,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LOOKUP(K12,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="5">
+        <f>LOOKUP(M12,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="110.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="5">
+        <f>LOOKUP(D13,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="5">
+        <f>LOOKUP(I13,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LOOKUP(K13,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="5">
+        <f>LOOKUP(M13,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="126">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="5">
+        <f>LOOKUP(D14,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="5">
+        <f>LOOKUP(I14,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LOOKUP(K14,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="5">
+        <f>LOOKUP(M14,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="94.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="5">
+        <f>LOOKUP(D15,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="5">
+        <f>LOOKUP(I15,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LOOKUP(K15,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="5">
+        <f>LOOKUP(M15,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="63">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="5">
+        <f>LOOKUP(D16,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="5">
+        <f>LOOKUP(I16,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LOOKUP(K16,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="5">
+        <f>LOOKUP(M16,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="110.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="5">
+        <f>LOOKUP(D17,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="5">
+        <f>LOOKUP(I17,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LOOKUP(K17,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="5">
+        <f>LOOKUP(M17,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="78.75">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="5">
+        <f>LOOKUP(D18,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="5">
+        <f>LOOKUP(I18,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LOOKUP(K18,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="5">
+        <f>LOOKUP(M18,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="78.75">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="5">
+        <f>LOOKUP(D19,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H19" s="5">
+        <f>LOOKUP(I19,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LOOKUP(K19,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="5">
+        <f>LOOKUP(M19,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="126">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="5">
+        <f>LOOKUP(D20,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="5">
+        <f>LOOKUP(I20,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LOOKUP(K20,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="5">
+        <f>LOOKUP(M20,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="94.5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="5">
+        <f>LOOKUP(D21,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="5">
+        <f>LOOKUP(I21,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LOOKUP(K21,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="5">
+        <f>LOOKUP(M21,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="94.5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="5">
+        <f>LOOKUP(D22,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H22" s="5">
+        <f>LOOKUP(I22,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LOOKUP(K22,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="5">
+        <f>LOOKUP(M22,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="94.5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="5">
+        <f>LOOKUP(D23,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" s="5">
+        <f>LOOKUP(I23,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LOOKUP(K23,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="5">
+        <f>LOOKUP(M23,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="94.5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="5">
+        <f>LOOKUP(D24,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>4</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24" s="5">
+        <f>LOOKUP(I24,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>13</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LOOKUP(K24,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" s="5">
+        <f>LOOKUP(M24,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="110.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="5">
+        <f>LOOKUP(D25,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="5">
+        <f>LOOKUP(I25,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LOOKUP(K25,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="5">
+        <f>LOOKUP(M25,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="78.75">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="5">
+        <f>LOOKUP(D26,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" s="5">
+        <f>LOOKUP(I26,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LOOKUP(K26,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="5">
+        <f>LOOKUP(M26,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="78.75">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="5">
+        <f>LOOKUP(D27,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LOOKUP(I27,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LOOKUP(K27,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" s="5">
+        <f>LOOKUP(M27,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="94.5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="5">
+        <f>LOOKUP(D28,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LOOKUP(I28,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>11</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LOOKUP(K28,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="5">
+        <f>LOOKUP(M28,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="126">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="5">
+        <f>LOOKUP(D29,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="5">
+        <f>LOOKUP(I29,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LOOKUP(K29,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" s="5">
+        <f>LOOKUP(M29,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="94.5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="5">
+        <f>LOOKUP(D30,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" s="5">
+        <f>LOOKUP(I30,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LOOKUP(K30,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="5">
+        <f>LOOKUP(M30,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="110.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="5">
+        <f>LOOKUP(D31,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LOOKUP(I31,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
+        <v>3</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LOOKUP(K31,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="5">
+        <f>LOOKUP(M31,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="31.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B14">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B3">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B4">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BD_Shop.xlsx
+++ b/BD_Shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="283">
   <si>
     <t>Роль сотрудника</t>
   </si>
   <si>
-    <t>ФИО</t>
-  </si>
-  <si>
     <t>Логин</t>
   </si>
   <si>
@@ -45,24 +42,15 @@
     <t>Администратор</t>
   </si>
   <si>
-    <t>Суслов Илья Арсентьевич</t>
-  </si>
-  <si>
     <t>pixil59@gmail.com</t>
   </si>
   <si>
     <t>2L6KZG</t>
   </si>
   <si>
-    <t>Яковлева Ярослава Даниэльевна</t>
-  </si>
-  <si>
     <t>uzWC67</t>
   </si>
   <si>
-    <t>Игнатьева Алина Михайловна</t>
-  </si>
-  <si>
     <t>vilagajaunne-5170@yandex.ru</t>
   </si>
   <si>
@@ -72,27 +60,18 @@
     <t>Менеджер</t>
   </si>
   <si>
-    <t>Денисов Михаил Романович</t>
-  </si>
-  <si>
     <t>frusubroppotou656@yandex.ru</t>
   </si>
   <si>
     <t>YOyhfR</t>
   </si>
   <si>
-    <t>Тимофеев Михаил Елисеевич</t>
-  </si>
-  <si>
     <t>leuttevitrafo1998@mail.ru</t>
   </si>
   <si>
     <t>RSbvHv</t>
   </si>
   <si>
-    <t>Соловьев Ярослав Маркович</t>
-  </si>
-  <si>
     <t>frapreubrulloba1141@yandex.ru</t>
   </si>
   <si>
@@ -802,6 +781,102 @@
   </si>
   <si>
     <t>ProductCategoryID</t>
+  </si>
+  <si>
+    <t>Суслов</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Арсентьевич</t>
+  </si>
+  <si>
+    <t>Яковлева</t>
+  </si>
+  <si>
+    <t>Ярослава</t>
+  </si>
+  <si>
+    <t>Даниэльевна</t>
+  </si>
+  <si>
+    <t>Игнатьева</t>
+  </si>
+  <si>
+    <t>Алина</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>Денисов</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Романович</t>
+  </si>
+  <si>
+    <t>Тимофеев</t>
+  </si>
+  <si>
+    <t>Елисеевич</t>
+  </si>
+  <si>
+    <t>Соловьев</t>
+  </si>
+  <si>
+    <t>Ярослав</t>
+  </si>
+  <si>
+    <t>Маркович</t>
+  </si>
+  <si>
+    <t>Филимонов</t>
+  </si>
+  <si>
+    <t>Роберт</t>
+  </si>
+  <si>
+    <t>Васильевич</t>
+  </si>
+  <si>
+    <t>Шилова</t>
+  </si>
+  <si>
+    <t>Майя</t>
+  </si>
+  <si>
+    <t>Артемьевна</t>
+  </si>
+  <si>
+    <t>Чистякова</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Степановна</t>
+  </si>
+  <si>
+    <t>Волкова</t>
+  </si>
+  <si>
+    <t>Эмилия</t>
+  </si>
+  <si>
+    <t>Артёмовна</t>
+  </si>
+  <si>
+    <t>SurName</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Patronymic</t>
   </si>
 </sst>
 </file>
@@ -1213,40 +1288,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
+        <v>282</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1255,19 +1337,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1276,19 +1364,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>254</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
+        <v>256</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1297,19 +1391,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>257</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
+        <v>259</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1318,19 +1418,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>260</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
+        <v>262</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1339,19 +1445,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1360,19 +1472,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>265</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
+        <v>267</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1381,19 +1499,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>268</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
+        <v>270</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1402,19 +1526,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>271</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+        <v>273</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1423,19 +1553,25 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>274</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+        <v>276</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1444,16 +1580,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>277</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>279</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1476,10 +1618,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.5">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -1487,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -1495,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -1503,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
@@ -1511,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
@@ -1519,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
@@ -1527,7 +1669,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5">
@@ -1535,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="31.5">
@@ -1543,7 +1685,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1569,10 +1711,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -1580,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -1588,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -1596,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1630,37 +1772,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
@@ -1671,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5">
         <v>15</v>
@@ -1686,7 +1828,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I2" s="5">
         <v>601</v>
@@ -1696,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
@@ -1707,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D3" s="7">
         <v>15</v>
@@ -1722,7 +1864,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I3" s="7">
         <v>602</v>
@@ -1732,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
@@ -1743,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D4" s="7">
         <v>10</v>
@@ -1758,7 +1900,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5">
         <v>603</v>
@@ -1768,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
@@ -1779,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -1794,7 +1936,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I5" s="7">
         <v>604</v>
@@ -1804,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75">
@@ -1815,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -1830,7 +1972,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I6" s="5">
         <v>605</v>
@@ -1840,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
@@ -1851,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -1866,7 +2008,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
         <v>606</v>
@@ -1876,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
@@ -1887,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -1902,7 +2044,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I8" s="5">
         <v>607</v>
@@ -1912,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
@@ -1923,7 +2065,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -1938,7 +2080,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I9" s="7">
         <v>608</v>
@@ -1948,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75">
@@ -1959,7 +2101,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -1974,7 +2116,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I10" s="5">
         <v>609</v>
@@ -1984,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75">
@@ -1995,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -2010,7 +2152,7 @@
         <v>36</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
         <v>610</v>
@@ -2020,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75">
@@ -2031,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -2046,7 +2188,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I12" s="5">
         <v>601</v>
@@ -2056,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75">
@@ -2067,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7">
         <v>15</v>
@@ -2082,7 +2224,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
         <v>602</v>
@@ -2092,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75">
@@ -2103,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7">
         <v>10</v>
@@ -2118,7 +2260,7 @@
         <v>22</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I14" s="5">
         <v>603</v>
@@ -2128,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
@@ -2139,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D15" s="7">
         <v>2</v>
@@ -2154,7 +2296,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I15" s="7">
         <v>604</v>
@@ -2164,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75">
@@ -2175,7 +2317,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
         <v>10</v>
@@ -2190,7 +2332,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I16" s="5">
         <v>605</v>
@@ -2200,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
@@ -2211,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -2226,7 +2368,7 @@
         <v>28</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
         <v>606</v>
@@ -2236,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75">
@@ -2247,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -2262,7 +2404,7 @@
         <v>36</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I18" s="5">
         <v>607</v>
@@ -2272,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
@@ -2283,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
@@ -2298,7 +2440,7 @@
         <v>32</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I19" s="7">
         <v>608</v>
@@ -2308,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
@@ -2319,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -2334,7 +2476,7 @@
         <v>34</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <v>609</v>
@@ -2344,7 +2486,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
@@ -2355,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
@@ -2370,7 +2512,7 @@
         <v>36</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I21" s="7">
         <v>610</v>
@@ -2380,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2404,10 +2546,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.5">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -2415,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -2423,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2449,10 +2591,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -2460,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -2468,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -2476,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
@@ -2484,7 +2626,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
@@ -2492,7 +2634,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
@@ -2500,7 +2642,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
@@ -2508,7 +2650,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
@@ -2516,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
@@ -2524,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
@@ -2532,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
@@ -2540,7 +2682,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
@@ -2548,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
@@ -2556,7 +2698,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
@@ -2564,7 +2706,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75">
@@ -2572,7 +2714,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
@@ -2580,7 +2722,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
@@ -2588,7 +2730,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
@@ -2596,7 +2738,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
@@ -2604,7 +2746,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
@@ -2612,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75">
@@ -2620,7 +2762,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
@@ -2628,7 +2770,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75">
@@ -2636,7 +2778,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
@@ -2644,7 +2786,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75">
@@ -2652,7 +2794,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
@@ -2660,7 +2802,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75">
@@ -2668,7 +2810,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
@@ -2676,7 +2818,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75">
@@ -2684,7 +2826,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
@@ -2692,7 +2834,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75">
@@ -2700,7 +2842,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
@@ -2708,7 +2850,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75">
@@ -2716,7 +2858,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75">
@@ -2724,7 +2866,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75">
@@ -2732,7 +2874,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75">
@@ -2740,7 +2882,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +2894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -2777,58 +2919,58 @@
   <sheetData>
     <row r="1" spans="1:18" ht="47.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="R1" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="94.5">
@@ -2836,59 +2978,59 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C2" s="5">
         <f>LOOKUP(D2,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H2" s="5">
         <f>LOOKUP(I2,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>4</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J2" s="5">
         <f>LOOKUP(K2,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L2" s="5">
         <f>LOOKUP(M2,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>2</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="110.25">
@@ -2896,59 +3038,59 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C3" s="5">
         <f>LOOKUP(D3,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5">
         <f>LOOKUP(I3,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J3" s="5">
         <f>LOOKUP(K3,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L3" s="5">
         <f>LOOKUP(M3,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="110.25">
@@ -2956,59 +3098,59 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5">
         <f>LOOKUP(D4,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H4" s="5">
         <f>LOOKUP(I4,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>8</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J4" s="5">
         <f>LOOKUP(K4,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L4" s="5">
         <f>LOOKUP(M4,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>2</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="126">
@@ -3016,59 +3158,59 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C5" s="5">
         <f>LOOKUP(D5,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H5" s="5">
         <f>LOOKUP(I5,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>9</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J5" s="5">
         <f>LOOKUP(K5,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L5" s="5">
         <f>LOOKUP(M5,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="110.25">
@@ -3076,59 +3218,59 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5">
         <f>LOOKUP(D6,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H6" s="5">
         <f>LOOKUP(I6,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>9</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J6" s="5">
         <f>LOOKUP(K6,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L6" s="5">
         <f>LOOKUP(M6,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="110.25">
@@ -3136,59 +3278,59 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5">
         <f>LOOKUP(D7,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H7" s="5">
         <f>LOOKUP(I7,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>2</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J7" s="5">
         <f>LOOKUP(K7,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L7" s="5">
         <f>LOOKUP(M7,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="Q7" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="94.5">
@@ -3196,59 +3338,59 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5">
         <f>LOOKUP(D8,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H8" s="5">
         <f>LOOKUP(I8,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J8" s="5">
         <f>LOOKUP(K8,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L8" s="5">
         <f>LOOKUP(M8,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="110.25">
@@ -3256,59 +3398,59 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C9" s="5">
         <f>LOOKUP(D9,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H9" s="5">
         <f>LOOKUP(I9,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>5</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J9" s="5">
         <f>LOOKUP(K9,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L9" s="5">
         <f>LOOKUP(M9,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>2</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="94.5">
@@ -3316,59 +3458,59 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5">
         <f>LOOKUP(D10,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H10" s="5">
         <f>LOOKUP(I10,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>7</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J10" s="5">
         <f>LOOKUP(K10,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L10" s="5">
         <f>LOOKUP(M10,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="78.75">
@@ -3376,59 +3518,59 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C11" s="5">
         <f>LOOKUP(D11,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H11" s="5">
         <f>LOOKUP(I11,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J11" s="5">
         <f>LOOKUP(K11,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L11" s="5">
         <f>LOOKUP(M11,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="78.75">
@@ -3436,59 +3578,59 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C12" s="5">
         <f>LOOKUP(D12,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H12" s="5">
         <f>LOOKUP(I12,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J12" s="5">
         <f>LOOKUP(K12,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L12" s="5">
         <f>LOOKUP(M12,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="110.25">
@@ -3496,119 +3638,119 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5">
         <f>LOOKUP(D13,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H13" s="5">
         <f>LOOKUP(I13,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J13" s="5">
         <f>LOOKUP(K13,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L13" s="5">
         <f>LOOKUP(M13,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="126">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="141.75">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C14" s="5">
         <f>LOOKUP(D14,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H14" s="5">
         <f>LOOKUP(I14,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J14" s="5">
         <f>LOOKUP(K14,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L14" s="5">
         <f>LOOKUP(M14,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>2</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="94.5">
@@ -3616,59 +3758,59 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C15" s="5">
         <f>LOOKUP(D15,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H15" s="5">
         <f>LOOKUP(I15,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J15" s="5">
         <f>LOOKUP(K15,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L15" s="5">
         <f>LOOKUP(M15,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>1</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N15" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="P15" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="63">
@@ -3676,59 +3818,59 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C16" s="5">
         <f>LOOKUP(D16,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H16" s="5">
         <f>LOOKUP(I16,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J16" s="5">
         <f>LOOKUP(K16,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L16" s="5">
         <f>LOOKUP(M16,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>2</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="110.25">
@@ -3736,59 +3878,59 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C17" s="5">
         <f>LOOKUP(D17,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H17" s="5">
         <f>LOOKUP(I17,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>2</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J17" s="5">
         <f>LOOKUP(K17,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L17" s="5">
         <f>LOOKUP(M17,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="78.75">
@@ -3796,59 +3938,59 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C18" s="5">
         <f>LOOKUP(D18,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H18" s="5">
         <f>LOOKUP(I18,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J18" s="5">
         <f>LOOKUP(K18,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L18" s="5">
         <f>LOOKUP(M18,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N18" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="P18" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="78.75">
@@ -3856,59 +3998,59 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C19" s="5">
         <f>LOOKUP(D19,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H19" s="5">
         <f>LOOKUP(I19,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J19" s="5">
         <f>LOOKUP(K19,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L19" s="5">
         <f>LOOKUP(M19,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N19" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="P19" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="126">
@@ -3916,59 +4058,59 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C20" s="5">
         <f>LOOKUP(D20,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H20" s="5">
         <f>LOOKUP(I20,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>8</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J20" s="5">
         <f>LOOKUP(K20,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L20" s="5">
         <f>LOOKUP(M20,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="94.5">
@@ -3976,59 +4118,59 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C21" s="5">
         <f>LOOKUP(D21,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H21" s="5">
         <f>LOOKUP(I21,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J21" s="5">
         <f>LOOKUP(K21,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L21" s="5">
         <f>LOOKUP(M21,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="94.5">
@@ -4036,59 +4178,59 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C22" s="5">
         <f>LOOKUP(D22,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>6</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H22" s="5">
         <f>LOOKUP(I22,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J22" s="5">
         <f>LOOKUP(K22,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L22" s="5">
         <f>LOOKUP(M22,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="94.5">
@@ -4096,59 +4238,59 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C23" s="5">
         <f>LOOKUP(D23,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H23" s="5">
         <f>LOOKUP(I23,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J23" s="5">
         <f>LOOKUP(K23,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L23" s="5">
         <f>LOOKUP(M23,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="94.5">
@@ -4156,59 +4298,59 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C24" s="5">
         <f>LOOKUP(D24,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>4</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H24" s="5">
         <f>LOOKUP(I24,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>13</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J24" s="5">
         <f>LOOKUP(K24,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L24" s="5">
         <f>LOOKUP(M24,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N24" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="P24" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="110.25">
@@ -4216,59 +4358,59 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C25" s="5">
         <f>LOOKUP(D25,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H25" s="5">
         <f>LOOKUP(I25,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J25" s="5">
         <f>LOOKUP(K25,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L25" s="5">
         <f>LOOKUP(M25,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="78.75">
@@ -4276,59 +4418,59 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C26" s="5">
         <f>LOOKUP(D26,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>5</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H26" s="5">
         <f>LOOKUP(I26,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J26" s="5">
         <f>LOOKUP(K26,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L26" s="5">
         <f>LOOKUP(M26,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>1</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="78.75">
@@ -4336,59 +4478,59 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C27" s="5">
         <f>LOOKUP(D27,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>5</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H27" s="5">
         <f>LOOKUP(I27,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>10</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J27" s="5">
         <f>LOOKUP(K27,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L27" s="5">
         <f>LOOKUP(M27,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>1</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="94.5">
@@ -4396,59 +4538,59 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C28" s="5">
         <f>LOOKUP(D28,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H28" s="5">
         <f>LOOKUP(I28,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>11</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J28" s="5">
         <f>LOOKUP(K28,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L28" s="5">
         <f>LOOKUP(M28,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="126">
@@ -4456,59 +4598,59 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C29" s="5">
         <f>LOOKUP(D29,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H29" s="5">
         <f>LOOKUP(I29,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>9</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J29" s="5">
         <f>LOOKUP(K29,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L29" s="5">
         <f>LOOKUP(M29,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="94.5">
@@ -4516,59 +4658,59 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C30" s="5">
         <f>LOOKUP(D30,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H30" s="5">
         <f>LOOKUP(I30,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>9</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J30" s="5">
         <f>LOOKUP(K30,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>2</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L30" s="5">
         <f>LOOKUP(M30,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="110.25">
@@ -4576,59 +4718,59 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C31" s="5">
         <f>LOOKUP(D31,NameCategory!$B$2:$B$9,NameCategory!$A$2:$A$9)</f>
         <v>7</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H31" s="5">
         <f>LOOKUP(I31,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
         <v>3</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J31" s="5">
         <f>LOOKUP(K31,Dealer!$B$2:$B$3,Dealer!$A$2:$A$3)</f>
         <v>1</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L31" s="5">
         <f>LOOKUP(M31,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
         <v>3</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4651,10 +4793,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.5">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -4662,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -4670,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -4678,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
@@ -4686,7 +4828,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
@@ -4694,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
@@ -4702,7 +4844,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
@@ -4710,7 +4852,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
@@ -4718,7 +4860,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
@@ -4726,7 +4868,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
@@ -4734,7 +4876,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
@@ -4742,7 +4884,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.5">
@@ -4750,7 +4892,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
@@ -4758,7 +4900,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4784,10 +4926,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -4795,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -4803,7 +4945,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4829,10 +4971,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.5">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -4840,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -4848,7 +4990,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -4856,7 +4998,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/BD_Shop.xlsx
+++ b/BD_Shop.xlsx
@@ -1291,311 +1291,302 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>LOOKUP(C2,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <f>LOOKUP(C3,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <f>LOOKUP(C4,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>LOOKUP(C5,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+      <c r="B5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>LOOKUP(C6,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+      <c r="B6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <f>LOOKUP(C7,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
+      <c r="B7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>LOOKUP(C8,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
-        <v>2</v>
+      <c r="B8" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f>LOOKUP(C9,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
-        <v>2</v>
+      <c r="B9" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <f>LOOKUP(C10,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
-        <v>2</v>
+      <c r="B10" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <f>LOOKUP(C11,Roles!$B$2:$B$4,Roles!$A$2:$A$4)</f>
-        <v>2</v>
+      <c r="B11" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +3684,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="141.75">
+    <row r="14" spans="1:18" ht="126">
       <c r="A14">
         <v>13</v>
       </c>

--- a/BD_Shop.xlsx
+++ b/BD_Shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -1290,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1742,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2885,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3504,7 +3504,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="78.75">
+    <row r="11" spans="1:18" ht="94.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="78.75">
+    <row r="12" spans="1:18" ht="94.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="126">
+    <row r="14" spans="1:18" ht="141.75">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="78.75">
+    <row r="19" spans="1:18" ht="94.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="78.75">
+    <row r="27" spans="1:18" ht="94.5">
       <c r="A27">
         <v>26</v>
       </c>

--- a/BD_Shop.xlsx
+++ b/BD_Shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="258">
   <si>
     <t>Роль сотрудника</t>
   </si>
@@ -636,9 +636,6 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -648,9 +645,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -660,15 +654,9 @@
     <t>7</t>
   </si>
   <si>
-    <t>1200</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -678,94 +666,31 @@
     <t>17</t>
   </si>
   <si>
-    <t>166</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>1700</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>4100</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>2190</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
   <si>
     <t>Picture</t>
@@ -974,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,6 +931,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1290,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1308,13 +1236,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1334,13 +1262,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
@@ -1360,13 +1288,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>31</v>
@@ -1386,13 +1314,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -1412,13 +1340,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
@@ -1438,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>12</v>
@@ -1464,13 +1392,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
@@ -1490,13 +1418,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -1516,13 +1444,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -1542,13 +1470,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
@@ -1568,13 +1496,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
@@ -1742,9 +1670,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -2885,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2916,7 +2844,7 @@
         <v>103</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>104</v>
@@ -2931,19 +2859,19 @@
         <v>200</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>107</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>108</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>109</v>
@@ -2961,7 +2889,7 @@
         <v>112</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="94.5">
@@ -2981,11 +2909,11 @@
       <c r="E2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="13">
+        <v>123</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="H2" s="5">
         <f>LOOKUP(I2,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3009,10 +2937,10 @@
         <v>117</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>118</v>
@@ -3041,11 +2969,11 @@
       <c r="E3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>206</v>
+      <c r="F3" s="13">
+        <v>149</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H3" s="5">
         <f>LOOKUP(I3,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3069,10 +2997,10 @@
         <v>124</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>125</v>
@@ -3101,11 +3029,11 @@
       <c r="E4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>210</v>
+      <c r="F4" s="13">
+        <v>1200</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5">
         <f>LOOKUP(I4,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3129,10 +3057,10 @@
         <v>117</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>129</v>
@@ -3161,11 +3089,11 @@
       <c r="E5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>212</v>
+      <c r="F5" s="13">
+        <v>86</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H5" s="5">
         <f>LOOKUP(I5,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3189,10 +3117,10 @@
         <v>133</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>134</v>
@@ -3221,11 +3149,11 @@
       <c r="E6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>216</v>
+      <c r="F6" s="13">
+        <v>166</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H6" s="5">
         <f>LOOKUP(I6,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3249,10 +3177,10 @@
         <v>133</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>136</v>
@@ -3281,11 +3209,11 @@
       <c r="E7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>218</v>
+      <c r="F7" s="13">
+        <v>1700</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H7" s="5">
         <f>LOOKUP(I7,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3309,10 +3237,10 @@
         <v>133</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>140</v>
@@ -3341,11 +3269,11 @@
       <c r="E8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>220</v>
+      <c r="F8" s="13">
+        <v>300</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H8" s="5">
         <f>LOOKUP(I8,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3369,10 +3297,10 @@
         <v>133</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>144</v>
@@ -3401,11 +3329,11 @@
       <c r="E9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>222</v>
+      <c r="F9" s="13">
+        <v>199</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H9" s="5">
         <f>LOOKUP(I9,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3429,10 +3357,10 @@
         <v>117</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>149</v>
@@ -3461,11 +3389,11 @@
       <c r="E10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>223</v>
+      <c r="F10" s="13">
+        <v>234</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H10" s="5">
         <f>LOOKUP(I10,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3489,10 +3417,10 @@
         <v>133</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>153</v>
@@ -3521,11 +3449,11 @@
       <c r="E11" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>224</v>
+      <c r="F11" s="13">
+        <v>170</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H11" s="5">
         <f>LOOKUP(I11,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3549,10 +3477,10 @@
         <v>133</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>157</v>
@@ -3564,7 +3492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="94.5">
+    <row r="12" spans="1:18" ht="78.75">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3581,11 +3509,11 @@
       <c r="E12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>225</v>
+      <c r="F12" s="13">
+        <v>600</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H12" s="5">
         <f>LOOKUP(I12,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3609,10 +3537,10 @@
         <v>133</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>160</v>
@@ -3641,11 +3569,11 @@
       <c r="E13" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>220</v>
+      <c r="F13" s="13">
+        <v>300</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H13" s="5">
         <f>LOOKUP(I13,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3669,10 +3597,10 @@
         <v>133</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>161</v>
@@ -3701,11 +3629,11 @@
       <c r="E14" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>226</v>
+      <c r="F14" s="13">
+        <v>4100</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="5">
         <f>LOOKUP(I14,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3729,10 +3657,10 @@
         <v>117</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>164</v>
@@ -3761,11 +3689,11 @@
       <c r="E15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>228</v>
+      <c r="F15" s="13">
+        <v>385</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H15" s="5">
         <f>LOOKUP(I15,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3789,10 +3717,10 @@
         <v>124</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>166</v>
@@ -3821,11 +3749,11 @@
       <c r="E16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>229</v>
+      <c r="F16" s="13">
+        <v>280</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H16" s="5">
         <f>LOOKUP(I16,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3849,10 +3777,10 @@
         <v>117</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>168</v>
@@ -3881,11 +3809,11 @@
       <c r="E17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>218</v>
+      <c r="F17" s="13">
+        <v>1700</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H17" s="5">
         <f>LOOKUP(I17,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3909,10 +3837,10 @@
         <v>133</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>170</v>
@@ -3941,11 +3869,11 @@
       <c r="E18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>231</v>
+      <c r="F18" s="13">
+        <v>510</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H18" s="5">
         <f>LOOKUP(I18,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -3969,10 +3897,10 @@
         <v>133</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>171</v>
@@ -3984,7 +3912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="94.5">
+    <row r="19" spans="1:18" ht="78.75">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4001,11 +3929,11 @@
       <c r="E19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>231</v>
+      <c r="F19" s="13">
+        <v>510</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H19" s="5">
         <f>LOOKUP(I19,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4029,10 +3957,10 @@
         <v>133</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>173</v>
@@ -4061,11 +3989,11 @@
       <c r="E20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>232</v>
+      <c r="F20" s="13">
+        <v>2190</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H20" s="5">
         <f>LOOKUP(I20,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4089,10 +4017,10 @@
         <v>133</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>175</v>
@@ -4121,11 +4049,11 @@
       <c r="E21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>233</v>
+      <c r="F21" s="13">
+        <v>177</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H21" s="5">
         <f>LOOKUP(I21,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4149,10 +4077,10 @@
         <v>133</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>177</v>
@@ -4181,11 +4109,11 @@
       <c r="E22" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>234</v>
+      <c r="F22" s="13">
+        <v>100</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H22" s="5">
         <f>LOOKUP(I22,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4209,10 +4137,10 @@
         <v>133</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>178</v>
@@ -4241,11 +4169,11 @@
       <c r="E23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>236</v>
+      <c r="F23" s="13">
+        <v>640</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H23" s="5">
         <f>LOOKUP(I23,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4269,10 +4197,10 @@
         <v>133</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>179</v>
@@ -4301,11 +4229,11 @@
       <c r="E24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>237</v>
+      <c r="F24" s="13">
+        <v>800</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H24" s="5">
         <f>LOOKUP(I24,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4329,10 +4257,10 @@
         <v>133</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>183</v>
@@ -4361,11 +4289,11 @@
       <c r="E25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>238</v>
+      <c r="F25" s="13">
+        <v>3500</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" s="5">
         <f>LOOKUP(I25,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4389,10 +4317,10 @@
         <v>133</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>186</v>
@@ -4421,11 +4349,11 @@
       <c r="E26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>239</v>
+      <c r="F26" s="13">
+        <v>400</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H26" s="5">
         <f>LOOKUP(I26,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4449,10 +4377,10 @@
         <v>124</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>188</v>
@@ -4464,7 +4392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="94.5">
+    <row r="27" spans="1:18" ht="78.75">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4481,11 +4409,11 @@
       <c r="E27" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>240</v>
+      <c r="F27" s="13">
+        <v>292</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H27" s="5">
         <f>LOOKUP(I27,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4509,10 +4437,10 @@
         <v>124</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>190</v>
@@ -4541,11 +4469,11 @@
       <c r="E28" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>225</v>
+      <c r="F28" s="13">
+        <v>600</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H28" s="5">
         <f>LOOKUP(I28,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4569,10 +4497,10 @@
         <v>133</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>193</v>
@@ -4601,11 +4529,11 @@
       <c r="E29" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>243</v>
+      <c r="F29" s="13">
+        <v>140</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="H29" s="5">
         <f>LOOKUP(I29,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4629,10 +4557,10 @@
         <v>133</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>195</v>
@@ -4661,11 +4589,11 @@
       <c r="E30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>245</v>
+      <c r="F30" s="13">
+        <v>50</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H30" s="5">
         <f>LOOKUP(I30,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4689,10 +4617,10 @@
         <v>133</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>196</v>
@@ -4721,11 +4649,11 @@
       <c r="E31" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>225</v>
+      <c r="F31" s="13">
+        <v>600</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H31" s="5">
         <f>LOOKUP(I31,Manufacturer!$B$2:$B$14,Manufacturer!$A$2:$A$14)</f>
@@ -4749,10 +4677,10 @@
         <v>133</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>199</v>
@@ -4766,6 +4694,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
